--- a/Chronologie des chants d'anoures 2016-2023.xlsx
+++ b/Chronologie des chants d'anoures 2016-2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="461">
   <si>
     <t>Date</t>
   </si>
@@ -1339,9 +1339,6 @@
     <t>Mimi Chayer</t>
   </si>
   <si>
-    <t>Hâtif; Facebook Amphibiens reptiles Québec</t>
-  </si>
-  <si>
     <t>Blainville</t>
   </si>
   <si>
@@ -1460,6 +1457,48 @@
   </si>
   <si>
     <t>Angela Coxon</t>
+  </si>
+  <si>
+    <t>Hâtif</t>
+  </si>
+  <si>
+    <t>Lotbinière</t>
+  </si>
+  <si>
+    <t>Summum d'activité</t>
+  </si>
+  <si>
+    <t>Cote 1-2</t>
+  </si>
+  <si>
+    <t>Sainte-Ours</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplexus et ponte</t>
+  </si>
+  <si>
+    <t>Alexandre Gariépy/Marc DuBois (Facebook, Amphibiens et Reptiles du Québec)</t>
+  </si>
+  <si>
+    <t>iNaturalist (https://www.inaturalist.org/observations/159092353)</t>
+  </si>
+  <si>
+    <t>Ornitholarocque</t>
+  </si>
+  <si>
+    <t>Longue-Rive</t>
+  </si>
+  <si>
+    <t>Côte-Nord</t>
+  </si>
+  <si>
+    <t>Pierre-Louis Harton</t>
+  </si>
+  <si>
+    <t>217 &amp; 227</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1839,7 +1878,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -2209,64 +2251,64 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>44669</v>
+      <c r="A4" s="72">
+        <v>45026</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="G4" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>68</v>
+      <c r="H4" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>397</v>
       </c>
       <c r="J4" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
-        <v>44669</v>
+      <c r="A5" s="72">
+        <v>45027</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>68</v>
+        <v>332</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>401</v>
       </c>
       <c r="J5" s="63">
         <v>1</v>
@@ -2274,19 +2316,19 @@
     </row>
     <row r="6" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>15</v>
+      <c r="D6" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>233</v>
@@ -2294,19 +2336,19 @@
       <c r="G6" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>397</v>
+      <c r="H6" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>403</v>
       </c>
       <c r="J6" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
-        <v>45027</v>
+      <c r="A7" s="72">
+        <v>45029</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>38</v>
@@ -2324,21 +2366,21 @@
         <v>233</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J7" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
-        <v>45028</v>
+      <c r="A8" s="72">
+        <v>45029</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>12</v>
@@ -2356,7 +2398,7 @@
         <v>233</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="H8" s="54" t="s">
         <v>402</v>
@@ -2379,10 +2421,10 @@
         <v>332</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>233</v>
@@ -2390,11 +2432,9 @@
       <c r="G9" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>403</v>
+      <c r="H9" s="54"/>
+      <c r="I9" s="62" t="s">
+        <v>384</v>
       </c>
       <c r="J9" s="63">
         <v>1</v>
@@ -2402,125 +2442,127 @@
     </row>
     <row r="10" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" s="68" t="s">
         <v>233</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>403</v>
+        <v>310</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>406</v>
       </c>
       <c r="J10" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
-        <v>45029</v>
+      <c r="A11" s="72">
+        <v>45033</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G11" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H11" s="54"/>
+      <c r="H11" s="54" t="s">
+        <v>447</v>
+      </c>
       <c r="I11" s="62" t="s">
-        <v>384</v>
+        <v>127</v>
       </c>
       <c r="J11" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
-        <v>45030</v>
+      <c r="A12" s="72">
+        <v>45034</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F12" s="68" t="s">
         <v>233</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J12" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
-        <v>45033</v>
+      <c r="A13" s="78">
+        <v>45034</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="G13" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H13" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>127</v>
+      <c r="H13" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="J13" s="63">
         <v>1</v>
@@ -2531,28 +2573,28 @@
         <v>45034</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>410</v>
+        <v>310</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="63">
         <v>1</v>
@@ -2565,14 +2607,14 @@
       <c r="B15" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="94">
         <v>98</v>
       </c>
       <c r="D15" s="89" t="s">
         <v>295</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F15" s="68" t="s">
         <v>255</v>
@@ -2581,10 +2623,10 @@
         <v>310</v>
       </c>
       <c r="H15" s="91" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" s="92" t="s">
         <v>412</v>
-      </c>
-      <c r="I15" s="92" t="s">
-        <v>413</v>
       </c>
       <c r="J15" s="63">
         <v>1</v>
@@ -2613,10 +2655,10 @@
         <v>288</v>
       </c>
       <c r="H16" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="I16" s="54" t="s">
         <v>414</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>415</v>
       </c>
       <c r="J16" s="63">
         <v>1</v>
@@ -2633,7 +2675,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>15</v>
@@ -2645,10 +2687,10 @@
         <v>310</v>
       </c>
       <c r="H17" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>417</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>418</v>
       </c>
       <c r="J17" s="63">
         <v>1</v>
@@ -2665,7 +2707,7 @@
         <v>332</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>15</v>
@@ -2677,10 +2719,10 @@
         <v>285</v>
       </c>
       <c r="H18" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>417</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>418</v>
       </c>
       <c r="J18" s="63">
         <v>1</v>
@@ -2697,7 +2739,7 @@
         <v>260</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>70</v>
@@ -2709,10 +2751,10 @@
         <v>310</v>
       </c>
       <c r="H19" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="I19" s="54" t="s">
         <v>432</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>433</v>
       </c>
       <c r="J19" s="63">
         <v>1</v>
@@ -2723,28 +2765,28 @@
         <v>45041</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>420</v>
+        <v>62</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>310</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J20" s="63">
         <v>1</v>
@@ -2761,7 +2803,7 @@
         <v>332</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>62</v>
@@ -2773,10 +2815,10 @@
         <v>310</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J21" s="63">
         <v>1</v>
@@ -2787,28 +2829,28 @@
         <v>45041</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>62</v>
+        <v>419</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>310</v>
       </c>
       <c r="H22" s="62" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J22" s="63">
         <v>1</v>
@@ -2825,10 +2867,10 @@
         <v>332</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F23" s="68" t="s">
         <v>240</v>
@@ -2837,10 +2879,10 @@
         <v>285</v>
       </c>
       <c r="H23" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="I23" s="54" t="s">
         <v>429</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>430</v>
       </c>
       <c r="J23" s="63">
         <v>1</v>
@@ -2857,7 +2899,7 @@
         <v>260</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>70</v>
@@ -2869,10 +2911,10 @@
         <v>310</v>
       </c>
       <c r="H24" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="I24" s="54" t="s">
         <v>432</v>
-      </c>
-      <c r="I24" s="54" t="s">
-        <v>433</v>
       </c>
       <c r="J24" s="63">
         <v>1</v>
@@ -2889,7 +2931,7 @@
         <v>260</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E25" s="68" t="s">
         <v>70</v>
@@ -2901,10 +2943,10 @@
         <v>310</v>
       </c>
       <c r="H25" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="I25" s="54" t="s">
         <v>432</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>433</v>
       </c>
       <c r="J25" s="63">
         <v>1</v>
@@ -2945,28 +2987,26 @@
         <v>45044</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C27" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="D27" s="88" t="s">
-        <v>434</v>
+      <c r="D27" s="93" t="s">
+        <v>27</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="H27" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>436</v>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62" t="s">
+        <v>384</v>
       </c>
       <c r="J27" s="63">
         <v>1</v>
@@ -2977,16 +3017,16 @@
         <v>45044</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>332</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>438</v>
+        <v>62</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>240</v>
@@ -2995,10 +3035,10 @@
         <v>288</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J28" s="63">
         <v>1</v>
@@ -3006,7 +3046,7 @@
     </row>
     <row r="29" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
-        <v>45045</v>
+        <v>45044</v>
       </c>
       <c r="B29" s="68" t="s">
         <v>53</v>
@@ -3015,22 +3055,22 @@
         <v>332</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H29" s="62" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J29" s="63">
         <v>1</v>
@@ -3038,31 +3078,31 @@
     </row>
     <row r="30" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
-        <v>45045</v>
+        <v>45044</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>332</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="68">
+        <v>178</v>
       </c>
       <c r="D30" s="88" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>62</v>
+        <v>419</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H30" s="62" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="J30" s="63">
         <v>1</v>
@@ -3070,33 +3110,328 @@
     </row>
     <row r="31" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
-        <v>45045</v>
+        <v>45044</v>
       </c>
       <c r="B31" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>332</v>
+      <c r="C31" s="68">
+        <v>178</v>
       </c>
       <c r="D31" s="88" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>104</v>
+        <v>419</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>446</v>
+        <v>240</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="H31" s="62"/>
+        <v>288</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>449</v>
+      </c>
       <c r="I31" s="54" t="s">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="J31" s="63">
         <v>1</v>
       </c>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
+        <v>45044</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="78">
+        <v>45044</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="62"/>
+      <c r="I33" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J33" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="78">
+        <v>45044</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J34" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
+        <v>45045</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J35" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="78">
+        <v>45045</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="J36" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>45045</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="J37" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="78">
+        <v>45045</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>444</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="J38" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
+        <v>45046</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>451</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J39" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <v>45047</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>456</v>
+      </c>
+      <c r="J40" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A4:J25">
@@ -3133,10 +3468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="94"/>
+      <c r="B1" s="95"/>
     </row>
     <row r="3" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
